--- a/isfinal.xlsx
+++ b/isfinal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="244">
   <si>
     <t>ori</t>
   </si>
@@ -575,9 +575,6 @@
   </si>
   <si>
     <t>Other Fields of Study</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>rate</t>
@@ -3753,7 +3750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -11050,7 +11047,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11215,9 +11212,6 @@
       </c>
       <c r="B15">
         <v>81318</v>
-      </c>
-      <c r="C15" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -11231,7 +11225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -11245,10 +11239,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
         <v>186</v>
-      </c>
-      <c r="D1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11267,7 +11261,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3">
         <v>4275</v>
@@ -11295,7 +11289,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5">
         <v>18483</v>
@@ -11309,7 +11303,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6">
         <v>2677</v>
@@ -11351,7 +11345,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9">
         <v>12871</v>
@@ -11365,7 +11359,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10">
         <v>1799</v>
@@ -11379,7 +11373,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11">
         <v>671</v>
@@ -11393,7 +11387,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12">
         <v>255</v>
@@ -11407,7 +11401,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13">
         <v>75</v>
@@ -11421,7 +11415,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14">
         <v>116</v>
@@ -11435,7 +11429,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15">
         <v>45605</v>
@@ -11449,7 +11443,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16">
         <v>14131</v>
@@ -11477,7 +11471,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18">
         <v>301</v>
@@ -11491,7 +11485,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19">
         <v>7298</v>
@@ -11505,7 +11499,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20">
         <v>5052</v>
@@ -11519,7 +11513,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21">
         <v>3144</v>
@@ -11533,7 +11527,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22">
         <v>2170</v>
@@ -11561,7 +11555,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24">
         <v>12709</v>
@@ -11575,7 +11569,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25">
         <v>2368</v>
@@ -11589,7 +11583,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26">
         <v>107682</v>
@@ -11603,7 +11597,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27">
         <v>33969</v>
@@ -11617,7 +11611,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28">
         <v>40184</v>
@@ -11631,7 +11625,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29">
         <v>33525</v>
@@ -11645,7 +11639,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30">
         <v>1676</v>
@@ -11673,7 +11667,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B32">
         <v>14189</v>
@@ -11687,7 +11681,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B33">
         <v>8741</v>
@@ -11701,7 +11695,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34">
         <v>2656</v>
@@ -11715,7 +11709,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B35">
         <v>3150</v>
@@ -11736,7 +11730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -11744,13 +11738,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12312,15 +12306,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:C111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -12331,7 +12325,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2">
         <v>78498</v>
@@ -12342,7 +12336,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3">
         <v>65671</v>
@@ -12353,7 +12347,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4">
         <v>69254</v>
@@ -12364,7 +12358,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5">
         <v>85132</v>
@@ -12375,7 +12369,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6">
         <v>50461</v>
@@ -12386,7 +12380,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7">
         <v>233463</v>
@@ -12397,7 +12391,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8">
         <v>122655</v>
@@ -12408,7 +12402,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9">
         <v>12742</v>
@@ -12419,7 +12413,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10">
         <v>15075</v>
@@ -12430,7 +12424,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11">
         <v>39444</v>
@@ -12441,7 +12435,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12">
         <v>45649</v>
@@ -12452,7 +12446,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13">
         <v>77818</v>
@@ -12463,7 +12457,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14">
         <v>63960</v>
@@ -12474,7 +12468,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15">
         <v>65592</v>
@@ -12485,7 +12479,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16">
         <v>77812</v>
@@ -12496,7 +12490,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>44119</v>
@@ -12507,7 +12501,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18">
         <v>208355</v>
@@ -12518,7 +12512,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19">
         <v>118104</v>
@@ -12529,7 +12523,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20">
         <v>10218</v>
@@ -12540,7 +12534,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21">
         <v>25551</v>
@@ -12551,7 +12545,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22">
         <v>46170</v>
@@ -12562,7 +12556,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23">
         <v>47417</v>
@@ -12573,7 +12567,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24">
         <v>70774</v>
@@ -12584,7 +12578,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25">
         <v>56058</v>
@@ -12595,7 +12589,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26">
         <v>56217</v>
@@ -12606,7 +12600,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27">
         <v>68798</v>
@@ -12617,7 +12611,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B28">
         <v>49297</v>
@@ -12628,7 +12622,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29">
         <v>181371</v>
@@ -12639,7 +12633,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30">
         <v>114790</v>
@@ -12650,7 +12644,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31">
         <v>11382</v>
@@ -12661,7 +12655,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32">
         <v>22311</v>
@@ -12672,7 +12666,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33">
         <v>41723</v>
@@ -12683,7 +12677,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B34">
         <v>37754</v>
@@ -12694,7 +12688,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B35">
         <v>67672</v>
@@ -12705,7 +12699,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B36">
         <v>50589</v>
@@ -12716,7 +12710,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B37">
         <v>52064</v>
@@ -12727,7 +12721,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B38">
         <v>64863</v>
@@ -12738,7 +12732,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B39">
         <v>36755</v>
@@ -12749,7 +12743,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B40">
         <v>165978</v>
@@ -12760,7 +12754,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B41">
         <v>117779</v>
@@ -12771,7 +12765,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B42">
         <v>12018</v>
@@ -12782,7 +12776,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B43">
         <v>15429</v>
@@ -12793,7 +12787,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44">
         <v>37213</v>
@@ -12804,7 +12798,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B45">
         <v>36315</v>
@@ -12815,7 +12809,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B46">
         <v>61772</v>
@@ -12826,7 +12820,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B47">
         <v>44835</v>
@@ -12837,7 +12831,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B48">
         <v>48516</v>
@@ -12848,7 +12842,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B49">
         <v>59517</v>
@@ -12859,7 +12853,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B50">
         <v>30186</v>
@@ -12870,7 +12864,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B51">
         <v>153735</v>
@@ -12881,7 +12875,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52">
         <v>117564</v>
@@ -12892,7 +12886,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53">
         <v>12154</v>
@@ -12903,7 +12897,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54">
         <v>16977</v>
@@ -12914,7 +12908,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55">
         <v>35108</v>
@@ -12925,7 +12919,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B56">
         <v>34458</v>
@@ -12936,7 +12930,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57">
         <v>52111</v>
@@ -12947,7 +12941,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B58">
         <v>40364</v>
@@ -12958,7 +12952,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B59">
         <v>43124</v>
@@ -12969,7 +12963,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B60">
         <v>52914</v>
@@ -12980,7 +12974,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B61">
         <v>31340</v>
@@ -12991,7 +12985,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B62">
         <v>154854</v>
@@ -13002,7 +12996,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B63">
         <v>119641</v>
@@ -13013,7 +13007,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B64">
         <v>11054</v>
@@ -13024,7 +13018,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B65">
         <v>11025</v>
@@ -13035,7 +13029,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B66">
         <v>29603</v>
@@ -13046,7 +13040,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B67">
         <v>29630</v>
@@ -13057,7 +13051,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B68">
         <v>49166</v>
@@ -13068,7 +13062,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B69">
         <v>37358</v>
@@ -13079,7 +13073,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B70">
         <v>39679</v>
@@ -13090,7 +13084,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B71">
         <v>47804</v>
@@ -13101,7 +13095,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72">
         <v>31862</v>
@@ -13112,7 +13106,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B73">
         <v>151252</v>
@@ -13123,7 +13117,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B74">
         <v>116254</v>
@@ -13134,7 +13128,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B75">
         <v>10695</v>
@@ -13145,7 +13139,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B76">
         <v>15684</v>
@@ -13156,7 +13150,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B77">
         <v>26059</v>
@@ -13167,7 +13161,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B78">
         <v>28744</v>
@@ -13178,7 +13172,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79">
         <v>46434</v>
@@ -13189,7 +13183,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B80">
         <v>31616</v>
@@ -13200,7 +13194,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B81">
         <v>33526</v>
@@ -13211,7 +13205,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B82">
         <v>41667</v>
@@ -13222,7 +13216,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B83">
         <v>42583</v>
@@ -13233,7 +13227,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B84">
         <v>143709</v>
@@ -13244,7 +13238,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B85">
         <v>108290</v>
@@ -13255,7 +13249,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B86">
         <v>9980</v>
@@ -13266,7 +13260,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B87">
         <v>21350</v>
@@ -13277,7 +13271,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B88">
         <v>26800</v>
@@ -13288,7 +13282,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B89">
         <v>25012</v>
@@ -13299,7 +13293,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90">
         <v>40217</v>
@@ -13310,7 +13304,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B91">
         <v>28489</v>
@@ -13321,7 +13315,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B92">
         <v>32172</v>
@@ -13332,7 +13326,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B93">
         <v>41279</v>
@@ -13343,7 +13337,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B94">
         <v>35825</v>
@@ -13354,7 +13348,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B95">
         <v>133698</v>
@@ -13365,7 +13359,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B96">
         <v>108976</v>
@@ -13376,7 +13370,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B97">
         <v>9472</v>
@@ -13387,7 +13381,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B98">
         <v>24696</v>
@@ -13398,7 +13392,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B99">
         <v>24468</v>
@@ -13409,7 +13403,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B100">
         <v>22369</v>
@@ -13420,7 +13414,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B101">
         <v>36060</v>
@@ -13431,7 +13425,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B102">
         <v>26562</v>
@@ -13442,7 +13436,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B103">
         <v>31523</v>
@@ -13453,7 +13447,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B104">
         <v>43236</v>
@@ -13464,7 +13458,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B105">
         <v>32814</v>
@@ -13475,7 +13469,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B106">
         <v>122385</v>
@@ -13486,7 +13480,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B107">
         <v>108033</v>
@@ -13497,7 +13491,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B108">
         <v>7415</v>
@@ -13508,7 +13502,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B109">
         <v>26455</v>
@@ -13519,7 +13513,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B110">
         <v>19819</v>
@@ -13530,7 +13524,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B111">
         <v>19167</v>
@@ -13549,7 +13543,7 @@
   <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13562,25 +13556,25 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" t="s">
         <v>228</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>229</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>230</v>
-      </c>
-      <c r="I1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -13910,7 +13904,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13">
         <v>10674</v>
@@ -13968,7 +13962,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15">
         <v>9772</v>
@@ -14026,7 +14020,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17">
         <v>8764</v>
@@ -14055,7 +14049,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18">
         <v>8727</v>
@@ -14084,7 +14078,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19">
         <v>7834</v>
@@ -14113,7 +14107,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20">
         <v>7815</v>
@@ -14171,7 +14165,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D22">
         <v>6640</v>
@@ -14548,7 +14542,7 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D35">
         <v>9494</v>
@@ -14577,7 +14571,7 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D36">
         <v>9034</v>
@@ -14606,7 +14600,7 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D37">
         <v>8743</v>
@@ -14635,7 +14629,7 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D38">
         <v>8188</v>
@@ -14693,7 +14687,7 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D40">
         <v>7231</v>
@@ -14751,7 +14745,7 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D42">
         <v>7169</v>
@@ -14780,7 +14774,7 @@
         <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D43">
         <v>6143</v>
@@ -15186,7 +15180,7 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D57">
         <v>8302</v>
@@ -15244,7 +15238,7 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D59">
         <v>7921</v>
@@ -15273,7 +15267,7 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D60">
         <v>7920</v>
@@ -15331,7 +15325,7 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D62">
         <v>7288</v>
@@ -15360,7 +15354,7 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D63">
         <v>7083</v>
@@ -15389,7 +15383,7 @@
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D64">
         <v>6822</v>
@@ -15418,7 +15412,7 @@
         <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D65">
         <v>5350</v>
@@ -15824,7 +15818,7 @@
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79">
         <v>8297</v>
@@ -15853,7 +15847,7 @@
         <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80">
         <v>7670</v>
@@ -15882,7 +15876,7 @@
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81">
         <v>7316</v>
@@ -15940,7 +15934,7 @@
         <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83">
         <v>6791</v>
@@ -15969,7 +15963,7 @@
         <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84">
         <v>6543</v>
@@ -15998,7 +15992,7 @@
         <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85">
         <v>6158</v>
@@ -16027,7 +16021,7 @@
         <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D86">
         <v>5115</v>
@@ -16056,7 +16050,7 @@
         <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D87">
         <v>5033</v>
@@ -16462,7 +16456,7 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D101">
         <v>8232</v>
@@ -16520,7 +16514,7 @@
         <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D103">
         <v>7131</v>
@@ -16549,7 +16543,7 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D104">
         <v>7028</v>
@@ -16607,7 +16601,7 @@
         <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D106">
         <v>6743</v>
@@ -16636,7 +16630,7 @@
         <v>22</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D107">
         <v>6295</v>
@@ -16665,7 +16659,7 @@
         <v>23</v>
       </c>
       <c r="C108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D108">
         <v>6281</v>
@@ -16694,7 +16688,7 @@
         <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D109">
         <v>4924</v>
@@ -16723,7 +16717,7 @@
         <v>25</v>
       </c>
       <c r="C110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D110">
         <v>4805</v>
@@ -17158,7 +17152,7 @@
         <v>17</v>
       </c>
       <c r="C125" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D125">
         <v>8098</v>
@@ -17187,7 +17181,7 @@
         <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D126">
         <v>7148</v>
@@ -17216,7 +17210,7 @@
         <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D127">
         <v>6942</v>
@@ -17245,7 +17239,7 @@
         <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D128">
         <v>6735</v>
@@ -17274,7 +17268,7 @@
         <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D129">
         <v>6456</v>
@@ -17332,7 +17326,7 @@
         <v>23</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D131">
         <v>5491</v>
@@ -17361,7 +17355,7 @@
         <v>24</v>
       </c>
       <c r="C132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D132">
         <v>5045</v>
@@ -17390,7 +17384,7 @@
         <v>25</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D133">
         <v>4692</v>
@@ -17825,7 +17819,7 @@
         <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D148">
         <v>7716</v>
@@ -17854,7 +17848,7 @@
         <v>18</v>
       </c>
       <c r="C149" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D149">
         <v>6943</v>
@@ -17883,7 +17877,7 @@
         <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D150">
         <v>6920</v>
@@ -17912,7 +17906,7 @@
         <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D151">
         <v>6568</v>
@@ -17941,7 +17935,7 @@
         <v>21</v>
       </c>
       <c r="C152" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D152">
         <v>6190</v>
@@ -17970,7 +17964,7 @@
         <v>22</v>
       </c>
       <c r="C153" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D153">
         <v>5384</v>
@@ -17999,7 +17993,7 @@
         <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D154">
         <v>5222</v>
@@ -18028,7 +18022,7 @@
         <v>24</v>
       </c>
       <c r="C155" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D155">
         <v>4958</v>
@@ -18057,7 +18051,7 @@
         <v>25</v>
       </c>
       <c r="C156" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D156">
         <v>4827</v>
@@ -18492,7 +18486,7 @@
         <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D171">
         <v>7509</v>
@@ -18521,7 +18515,7 @@
         <v>18</v>
       </c>
       <c r="C172" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D172">
         <v>7421</v>
@@ -18550,7 +18544,7 @@
         <v>19</v>
       </c>
       <c r="C173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D173">
         <v>7013</v>
@@ -18579,7 +18573,7 @@
         <v>20</v>
       </c>
       <c r="C174" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D174">
         <v>6256</v>
@@ -18608,7 +18602,7 @@
         <v>21</v>
       </c>
       <c r="C175" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D175">
         <v>5942</v>
@@ -18637,7 +18631,7 @@
         <v>22</v>
       </c>
       <c r="C176" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D176">
         <v>5877</v>
@@ -18666,7 +18660,7 @@
         <v>23</v>
       </c>
       <c r="C177" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D177">
         <v>5298</v>
@@ -18695,7 +18689,7 @@
         <v>24</v>
       </c>
       <c r="C178" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D178">
         <v>4908</v>
@@ -18724,7 +18718,7 @@
         <v>25</v>
       </c>
       <c r="C179" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D179">
         <v>4678</v>
@@ -19130,7 +19124,7 @@
         <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D193">
         <v>7692</v>
@@ -19188,7 +19182,7 @@
         <v>18</v>
       </c>
       <c r="C195" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D195">
         <v>7050</v>
@@ -19217,7 +19211,7 @@
         <v>19</v>
       </c>
       <c r="C196" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D196">
         <v>6662</v>
@@ -19246,7 +19240,7 @@
         <v>20</v>
       </c>
       <c r="C197" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D197">
         <v>6222</v>
@@ -19304,7 +19298,7 @@
         <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D199">
         <v>67723</v>
@@ -19333,7 +19327,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D200">
         <v>62392</v>
@@ -19623,7 +19617,7 @@
         <v>15</v>
       </c>
       <c r="C210" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D210">
         <v>7338</v>
@@ -19681,7 +19675,7 @@
         <v>17</v>
       </c>
       <c r="C212" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D212">
         <v>6750</v>
@@ -19710,7 +19704,7 @@
         <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D213">
         <v>6704</v>
@@ -19739,7 +19733,7 @@
         <v>19</v>
       </c>
       <c r="C214" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D214">
         <v>6349</v>
